--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/percents/scores-10.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,13 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>worst</t>
+    <t>scary</t>
   </si>
   <si>
     <t>terrifying</t>
@@ -52,99 +55,57 @@
     <t>hate</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>harmful</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>0.95-negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -154,88 +115,52 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>relevant</t>
   </si>
   <si>
     <t>glad</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>decent</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>hear</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>loving</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>dil</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>big</t>
+    <t>worth</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -614,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS37"/>
+  <dimension ref="A1:BS25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,28 +547,28 @@
   <sheetData>
     <row r="1" spans="1:71">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AB1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="AT1" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="BL1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -845,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01932195284213088</v>
+        <v>0.016594635274193</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>0.01181241249133244</v>
+        <v>0.01120014980075835</v>
       </c>
       <c r="L3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -887,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="T3">
-        <v>0.02292334379673182</v>
+        <v>0.01968473260618019</v>
       </c>
       <c r="U3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -914,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AC3">
-        <v>0.01385543820706855</v>
+        <v>0.01327878110647654</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -935,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AL3">
-        <v>0.02818691519191782</v>
+        <v>0.02420102870677685</v>
       </c>
       <c r="AM3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AN3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO3">
         <v>0</v>
@@ -962,16 +887,16 @@
         <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AU3">
-        <v>0.08960947439283072</v>
+        <v>0.1146638436720289</v>
       </c>
       <c r="AV3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX3">
         <v>1</v>
@@ -983,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>0.03660862942421542</v>
+        <v>0.03142710246773151</v>
       </c>
       <c r="BE3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BF3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1010,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="BM3">
-        <v>0.07071712056654167</v>
+        <v>0.09619992631084116</v>
       </c>
       <c r="BN3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BO3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -1031,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1039,13 +964,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01484959328702301</v>
+        <v>0.01657061081729588</v>
       </c>
       <c r="C4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1057,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K4">
-        <v>0.009630739849037015</v>
+        <v>0.01117612534386123</v>
       </c>
       <c r="L4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1081,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T4">
-        <v>0.01756946641844405</v>
+        <v>0.01957061643591886</v>
       </c>
       <c r="U4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1105,19 +1030,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AC4">
-        <v>0.01141502836743286</v>
+        <v>0.01316466493621521</v>
       </c>
       <c r="AD4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1129,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL4">
-        <v>0.02154466561052096</v>
+        <v>0.02395524003236784</v>
       </c>
       <c r="AM4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO4">
         <v>0</v>
@@ -1153,19 +1078,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AU4">
-        <v>0.0763477065736074</v>
+        <v>0.1131373526570721</v>
       </c>
       <c r="AV4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX4">
         <v>1</v>
@@ -1177,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.02790498431784401</v>
+        <v>0.0309706377866862</v>
       </c>
       <c r="BE4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BF4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1201,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="BM4">
-        <v>0.06210907792990019</v>
+        <v>0.09460869221506503</v>
       </c>
       <c r="BN4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BO4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -1225,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1233,13 +1158,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.003704863162703616</v>
+        <v>0.005270010031502392</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1254,16 +1179,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.009618683594553595</v>
+        <v>0.01115210088696411</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1275,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T5">
-        <v>0.004356574599113361</v>
+        <v>0.006215343348561092</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1302,16 +1227,16 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AC5">
-        <v>0.01135776115863662</v>
+        <v>0.01305054876595389</v>
       </c>
       <c r="AD5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF5">
         <v>1</v>
@@ -1323,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL5">
-        <v>0.005309075929250682</v>
+        <v>0.007596984350416118</v>
       </c>
       <c r="AM5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1350,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AU5">
-        <v>0.07576735096859252</v>
+        <v>0.1116108616421154</v>
       </c>
       <c r="AV5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX5">
         <v>1</v>
@@ -1371,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD5">
-        <v>0.006833078057470394</v>
+        <v>0.009807609953384158</v>
       </c>
       <c r="BE5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BF5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -1398,16 +1323,16 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="BM5">
-        <v>0.06153312634228153</v>
+        <v>0.09301745811928888</v>
       </c>
       <c r="BN5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BO5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -1419,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1427,7 +1352,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.003698835035461906</v>
+        <v>0.003760860814373549</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1445,13 +1370,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.009594571085586756</v>
+        <v>0.009705995678760668</v>
       </c>
       <c r="L6">
         <v>12</v>
@@ -1469,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T6">
-        <v>0.00432794099471524</v>
+        <v>0.004423228653220592</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1493,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AC6">
-        <v>0.01124322674104413</v>
+        <v>0.01150447308660429</v>
       </c>
       <c r="AD6">
         <v>12</v>
@@ -1517,13 +1442,13 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL6">
-        <v>0.005247403550547034</v>
+        <v>0.005391304725381654</v>
       </c>
       <c r="AM6">
         <v>4</v>
@@ -1541,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AU6">
-        <v>0.07460663975856276</v>
+        <v>0.1011013973939534</v>
       </c>
       <c r="AV6">
         <v>12</v>
@@ -1565,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD6">
-        <v>0.006718543639877908</v>
+        <v>0.006940226440839355</v>
       </c>
       <c r="BE6">
         <v>4</v>
@@ -1589,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="BM6">
-        <v>0.06038122316704421</v>
+        <v>0.08630355698416527</v>
       </c>
       <c r="BN6">
         <v>12</v>
@@ -1613,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1621,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.003692806908220196</v>
+        <v>0.003754854700149268</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1639,13 +1564,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.005183000783062219</v>
+        <v>0.005223533312767615</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1669,7 +1594,7 @@
         <v>12</v>
       </c>
       <c r="T7">
-        <v>0.004299307390317118</v>
+        <v>0.00439469961065526</v>
       </c>
       <c r="U7">
         <v>4</v>
@@ -1687,13 +1612,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AC7">
-        <v>0.006133338226587794</v>
+        <v>0.006181549026987542</v>
       </c>
       <c r="AD7">
         <v>6</v>
@@ -1717,7 +1642,7 @@
         <v>12</v>
       </c>
       <c r="AL7">
-        <v>0.005185731171843388</v>
+        <v>0.005329857556779402</v>
       </c>
       <c r="AM7">
         <v>4</v>
@@ -1735,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AU7">
-        <v>0.0457616817000566</v>
+        <v>0.06041405855972717</v>
       </c>
       <c r="AV7">
         <v>6</v>
@@ -1765,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="BD7">
-        <v>0.006604009222285421</v>
+        <v>0.006826110270578029</v>
       </c>
       <c r="BE7">
         <v>4</v>
@@ -1783,13 +1708,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="BM7">
-        <v>0.04086133154328662</v>
+        <v>0.05661444900413759</v>
       </c>
       <c r="BN7">
         <v>6</v>
@@ -1815,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002967507406507918</v>
+        <v>0.003012292320033407</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1836,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.004441710938733086</v>
+        <v>0.004476456251768772</v>
       </c>
       <c r="L8">
         <v>5</v>
@@ -1863,7 +1788,7 @@
         <v>13</v>
       </c>
       <c r="T8">
-        <v>0.003502439841929562</v>
+        <v>0.003555700348115672</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1884,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AC8">
-        <v>0.005253056536446947</v>
+        <v>0.005294395017051417</v>
       </c>
       <c r="AD8">
         <v>5</v>
@@ -1911,7 +1836,7 @@
         <v>13</v>
       </c>
       <c r="AL8">
-        <v>0.004284264170622733</v>
+        <v>0.004349912081466675</v>
       </c>
       <c r="AM8">
         <v>3</v>
@@ -1932,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="AU8">
-        <v>0.04066401088779813</v>
+        <v>0.05363283542068947</v>
       </c>
       <c r="AV8">
         <v>5</v>
@@ -1959,7 +1884,7 @@
         <v>13</v>
       </c>
       <c r="BD8">
-        <v>0.005535183096531807</v>
+        <v>0.00562065085482828</v>
       </c>
       <c r="BE8">
         <v>3</v>
@@ -1980,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="BM8">
-        <v>0.03732004047885101</v>
+        <v>0.05166626434079964</v>
       </c>
       <c r="BN8">
         <v>5</v>
@@ -2009,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.002961479279266209</v>
+        <v>0.002976255634687725</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2027,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.003700421094403954</v>
+        <v>0.00372937919076993</v>
       </c>
       <c r="L9">
         <v>4</v>
@@ -2057,7 +1982,7 @@
         <v>14</v>
       </c>
       <c r="T9">
-        <v>0.00347380623753144</v>
+        <v>0.003384526092723683</v>
       </c>
       <c r="U9">
         <v>3</v>
@@ -2075,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AC9">
-        <v>0.004372774846306104</v>
+        <v>0.004407241007115292</v>
       </c>
       <c r="AD9">
         <v>4</v>
@@ -2105,7 +2030,7 @@
         <v>14</v>
       </c>
       <c r="AL9">
-        <v>0.004222591791919086</v>
+        <v>0.00398122906985316</v>
       </c>
       <c r="AM9">
         <v>3</v>
@@ -2123,13 +2048,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AU9">
-        <v>0.03556634007553966</v>
+        <v>0.04685161228165176</v>
       </c>
       <c r="AV9">
         <v>4</v>
@@ -2153,7 +2078,7 @@
         <v>14</v>
       </c>
       <c r="BD9">
-        <v>0.005420648678939321</v>
+        <v>0.004935953833260323</v>
       </c>
       <c r="BE9">
         <v>3</v>
@@ -2171,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="BM9">
-        <v>0.03377874941441542</v>
+        <v>0.04671807967746169</v>
       </c>
       <c r="BN9">
         <v>4</v>
@@ -2203,13 +2128,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.00293133864305766</v>
+        <v>0.002257717711468985</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -2221,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.00232617788969529</v>
+        <v>0.002976296015546808</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -2245,19 +2170,19 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T10">
-        <v>0.003330638215540832</v>
+        <v>0.002659643000445421</v>
       </c>
       <c r="U10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2269,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="AC10">
-        <v>0.002612211466024413</v>
+        <v>0.003491557954613837</v>
       </c>
       <c r="AD10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -2293,19 +2218,19 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL10">
-        <v>0.003914229898400854</v>
+        <v>0.003247072268949443</v>
       </c>
       <c r="AM10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO10">
         <v>0</v>
@@ -2317,19 +2242,19 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="AU10">
-        <v>0.02537099845102272</v>
+        <v>0.03968876638887486</v>
       </c>
       <c r="AV10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX10">
         <v>1</v>
@@ -2341,19 +2266,19 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="BD10">
-        <v>0.004847976590976888</v>
+        <v>0.004186959098555878</v>
       </c>
       <c r="BE10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -2365,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="BM10">
-        <v>0.02669616728554422</v>
+        <v>0.04137208649017971</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -2389,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2397,7 +2322,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.002224123523070512</v>
+        <v>0.002257717711468985</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2418,16 +2343,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.002217841405745688</v>
+        <v>0.002351660136221654</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -2439,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="T11">
-        <v>0.002619671480347641</v>
+        <v>0.002659643000445421</v>
       </c>
       <c r="U11">
         <v>2</v>
@@ -2466,16 +2391,16 @@
         <v>0</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AC11">
-        <v>0.002612211466024413</v>
+        <v>0.001745778977306918</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -2493,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="AL11">
-        <v>0.003197780033291138</v>
+        <v>0.003247072268949443</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2514,16 +2439,16 @@
         <v>0</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="AU11">
-        <v>0.02537099845102272</v>
+        <v>0.02650794286453862</v>
       </c>
       <c r="AV11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX11">
         <v>1</v>
@@ -2541,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="BD11">
-        <v>0.004122753718000733</v>
+        <v>0.004186959098555878</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2562,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="BM11">
-        <v>0.02669616728554422</v>
+        <v>0.03187352568744785</v>
       </c>
       <c r="BN11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -2591,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.002224123523070512</v>
+        <v>0.002257717711468985</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2612,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.002217841405745688</v>
+        <v>0.001488148007773404</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -2639,7 +2564,7 @@
         <v>17</v>
       </c>
       <c r="T12">
-        <v>0.002619671480347641</v>
+        <v>0.002659643000445421</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2660,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AC12">
-        <v>0.00255494425722817</v>
+        <v>0.001745778977306918</v>
       </c>
       <c r="AD12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>1</v>
@@ -2681,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AL12">
-        <v>0.003197780033291138</v>
+        <v>0.003247072268949443</v>
       </c>
       <c r="AM12">
         <v>2</v>
@@ -2708,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AU12">
-        <v>0.02479064284600785</v>
+        <v>0.02650794286453862</v>
       </c>
       <c r="AV12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX12">
         <v>1</v>
@@ -2729,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="BD12">
-        <v>0.004122753718000733</v>
+        <v>0.004186959098555878</v>
       </c>
       <c r="BE12">
         <v>2</v>
@@ -2756,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="BM12">
-        <v>0.02612021569792556</v>
+        <v>0.03187352568744785</v>
       </c>
       <c r="BN12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP12">
         <v>1</v>
@@ -2777,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2785,13 +2710,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.002224123523070512</v>
+        <v>0.001503143102904563</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -2806,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.002205785151262268</v>
+        <v>0.001488148007773404</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -2827,19 +2752,19 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T13">
-        <v>0.002619671480347641</v>
+        <v>0.00176358565277517</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2854,16 +2779,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AC13">
-        <v>0.00255494425722817</v>
+        <v>0.001745778977306918</v>
       </c>
       <c r="AD13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>1</v>
@@ -2875,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AL13">
-        <v>0.003197780033291138</v>
+        <v>0.002144232456432211</v>
       </c>
       <c r="AM13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>0</v>
@@ -2902,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AU13">
-        <v>0.02479064284600785</v>
+        <v>0.02650794286453862</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>1</v>
@@ -2923,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="BD13">
-        <v>0.004122753718000733</v>
+        <v>0.002753267342283477</v>
       </c>
       <c r="BE13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -2950,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="BM13">
-        <v>0.02612021569792556</v>
+        <v>0.03187352568744785</v>
       </c>
       <c r="BN13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP13">
         <v>1</v>
@@ -2971,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2979,13 +2904,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.002224123523070512</v>
+        <v>0.001503143102904563</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3000,16 +2925,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.002205785151262268</v>
+        <v>0.001488148007773404</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3021,19 +2946,19 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T14">
-        <v>0.002619671480347641</v>
+        <v>0.00176358565277517</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -3048,10 +2973,10 @@
         <v>0</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AC14">
-        <v>0.001731929775883568</v>
+        <v>0.001745778977306918</v>
       </c>
       <c r="AD14">
         <v>1</v>
@@ -3075,13 +3000,13 @@
         <v>19</v>
       </c>
       <c r="AL14">
-        <v>0.003197780033291138</v>
+        <v>0.002144232456432211</v>
       </c>
       <c r="AM14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14">
         <v>0</v>
@@ -3096,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="AU14">
-        <v>0.02027332763876426</v>
+        <v>0.02650794286453862</v>
       </c>
       <c r="AV14">
         <v>1</v>
@@ -3123,13 +3048,13 @@
         <v>19</v>
       </c>
       <c r="BD14">
-        <v>0.004122753718000733</v>
+        <v>0.002753267342283477</v>
       </c>
       <c r="BE14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -3144,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="BM14">
-        <v>0.02315487622110863</v>
+        <v>0.03187352568744785</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3173,13 +3098,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002224123523070512</v>
+        <v>0.001503143102904563</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3194,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.001476551561416556</v>
+        <v>0.001488148007773404</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3221,13 +3146,13 @@
         <v>20</v>
       </c>
       <c r="T15">
-        <v>0.002619671480347641</v>
+        <v>0.00176358565277517</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -3242,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AC15">
-        <v>0.001731929775883568</v>
+        <v>0.001717249934741587</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3263,19 +3188,19 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL15">
-        <v>0.003197780033291138</v>
+        <v>0.002144232456432211</v>
       </c>
       <c r="AM15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO15">
         <v>0</v>
@@ -3290,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AU15">
-        <v>0.02027332763876426</v>
+        <v>0.02612632011079944</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3311,19 +3236,19 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD15">
-        <v>0.004122753718000733</v>
+        <v>0.002753267342283477</v>
       </c>
       <c r="BE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -3338,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="BM15">
-        <v>0.02315487622110863</v>
+        <v>0.03147571716350381</v>
       </c>
       <c r="BN15">
         <v>1</v>
@@ -3359,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3367,13 +3292,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.002224123523070512</v>
+        <v>0.001503143102904563</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3388,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.001476551561416556</v>
+        <v>0.001482141893549124</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3409,19 +3334,19 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T16">
-        <v>0.002619671480347641</v>
+        <v>0.00176358565277517</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -3436,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AC16">
-        <v>0.001731929775883568</v>
+        <v>0.001717249934741587</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3457,19 +3382,19 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL16">
-        <v>0.003197780033291138</v>
+        <v>0.002144232456432211</v>
       </c>
       <c r="AM16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO16">
         <v>0</v>
@@ -3484,10 +3409,10 @@
         <v>0</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="AU16">
-        <v>0.02027332763876426</v>
+        <v>0.02612632011079944</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3505,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD16">
-        <v>0.004122753718000733</v>
+        <v>0.002753267342283477</v>
       </c>
       <c r="BE16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -3532,10 +3457,10 @@
         <v>0</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="BM16">
-        <v>0.02315487622110863</v>
+        <v>0.03147571716350381</v>
       </c>
       <c r="BN16">
         <v>1</v>
@@ -3553,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3561,13 +3486,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.002224123523070512</v>
+        <v>0.001503143102904563</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3582,10 +3507,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.001476551561416556</v>
+        <v>0.001482141893549124</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3603,19 +3528,19 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T17">
-        <v>0.002619671480347641</v>
+        <v>0.00176358565277517</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -3630,10 +3555,10 @@
         <v>0</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AC17">
-        <v>0.001731929775883568</v>
+        <v>0.001717249934741587</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3651,19 +3576,19 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL17">
-        <v>0.003197780033291138</v>
+        <v>0.002144232456432211</v>
       </c>
       <c r="AM17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO17">
         <v>0</v>
@@ -3678,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="AU17">
-        <v>0.02027332763876426</v>
+        <v>0.02612632011079944</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3699,19 +3624,19 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD17">
-        <v>0.004122753718000733</v>
+        <v>0.002753267342283477</v>
       </c>
       <c r="BE17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -3726,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="BM17">
-        <v>0.02315487622110863</v>
+        <v>0.03147571716350381</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3747,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3755,13 +3680,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.002224123523070512</v>
+        <v>0.001497136988680283</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3773,13 +3698,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.001476551561416556</v>
+        <v>0.001482141893549124</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3797,19 +3722,19 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T18">
-        <v>0.002619671480347641</v>
+        <v>0.001735056610209839</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3821,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AC18">
-        <v>0.001731929775883568</v>
+        <v>0.001717249934741587</v>
       </c>
       <c r="AD18">
         <v>1</v>
@@ -3845,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL18">
-        <v>0.003197780033291138</v>
+        <v>0.002082785287829958</v>
       </c>
       <c r="AM18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>0</v>
@@ -3869,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AU18">
-        <v>0.02027332763876426</v>
+        <v>0.02612632011079944</v>
       </c>
       <c r="AV18">
         <v>1</v>
@@ -3893,19 +3818,19 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD18">
-        <v>0.004122753718000733</v>
+        <v>0.002639151172022151</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -3917,13 +3842,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BM18">
-        <v>0.02315487622110863</v>
+        <v>0.03147571716350381</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3941,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3949,13 +3874,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.002224123523070512</v>
+        <v>0.001485124760231722</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3967,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>0.001476551561416556</v>
+        <v>0.001482141893549124</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3991,183 +3916,159 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T19">
-        <v>0.002619671480347641</v>
+        <v>0.001677998525079176</v>
       </c>
       <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19">
+        <v>0.001688720892176255</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19">
         <v>2</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC19">
-        <v>0.001731929775883568</v>
-      </c>
-      <c r="AD19">
-        <v>1</v>
-      </c>
-      <c r="AE19">
-        <v>1</v>
-      </c>
-      <c r="AF19">
-        <v>1</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL19">
-        <v>0.003197780033291138</v>
+        <v>0.001959890950625454</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>1</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>3</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU19">
+        <v>0.02574469735706026</v>
+      </c>
+      <c r="AV19">
+        <v>1</v>
+      </c>
+      <c r="AW19">
+        <v>1</v>
+      </c>
+      <c r="AX19">
+        <v>1</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19">
         <v>2</v>
-      </c>
-      <c r="AN19">
-        <v>2</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU19">
-        <v>0.02027332763876426</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>1</v>
-      </c>
-      <c r="AY19">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>0</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD19">
-        <v>0.004122753718000733</v>
+        <v>0.002410918831499499</v>
       </c>
       <c r="BE19">
+        <v>1</v>
+      </c>
+      <c r="BF19">
+        <v>1</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ19">
+        <v>3</v>
+      </c>
+      <c r="BL19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BM19">
+        <v>0.03107790863955978</v>
+      </c>
+      <c r="BN19">
+        <v>1</v>
+      </c>
+      <c r="BO19">
+        <v>1</v>
+      </c>
+      <c r="BP19">
+        <v>1</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS19">
         <v>2</v>
-      </c>
-      <c r="BF19">
-        <v>2</v>
-      </c>
-      <c r="BG19">
-        <v>0</v>
-      </c>
-      <c r="BH19">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ19">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM19">
-        <v>0.02315487622110863</v>
-      </c>
-      <c r="BN19">
-        <v>1</v>
-      </c>
-      <c r="BO19">
-        <v>1</v>
-      </c>
-      <c r="BP19">
-        <v>1</v>
-      </c>
-      <c r="BQ19">
-        <v>0</v>
-      </c>
-      <c r="BR19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:71">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>0.001476551561416556</v>
+        <v>0.001476135779324843</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4185,37 +4086,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T20">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AC20">
-        <v>0.001731929775883568</v>
+        <v>0.001688720892176255</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4233,37 +4110,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AL20">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM20">
-        <v>1</v>
-      </c>
-      <c r="AN20">
-        <v>1</v>
-      </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>1</v>
-      </c>
-      <c r="AQ20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AU20">
-        <v>0.02027332763876426</v>
+        <v>0.02574469735706026</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4281,37 +4134,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD20">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE20">
-        <v>1</v>
-      </c>
-      <c r="BF20">
-        <v>1</v>
-      </c>
-      <c r="BG20">
-        <v>0</v>
-      </c>
-      <c r="BH20">
-        <v>1</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BM20">
-        <v>0.02315487622110863</v>
+        <v>0.03107790863955978</v>
       </c>
       <c r="BN20">
         <v>1</v>
@@ -4329,39 +4158,15 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:71">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>0.001476551561416556</v>
+        <v>0.001476135779324843</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4379,37 +4184,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21">
-        <v>1</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AC21">
-        <v>0.001731929775883568</v>
+        <v>0.001660191849610924</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4427,37 +4208,13 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL21">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT21" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="AU21">
-        <v>0.02027332763876426</v>
+        <v>0.02536307460332108</v>
       </c>
       <c r="AV21">
         <v>1</v>
@@ -4475,37 +4232,13 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BD21">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE21">
-        <v>1</v>
-      </c>
-      <c r="BF21">
-        <v>1</v>
-      </c>
-      <c r="BG21">
-        <v>0</v>
-      </c>
-      <c r="BH21">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="BM21">
-        <v>0.02315487622110863</v>
+        <v>0.03068010011561574</v>
       </c>
       <c r="BN21">
         <v>1</v>
@@ -4523,39 +4256,15 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:71">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.001476551561416556</v>
+        <v>0.001470129665100563</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4573,37 +4282,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AC22">
-        <v>0.001731929775883568</v>
+        <v>0.001660191849610924</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4621,37 +4306,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL22">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM22">
-        <v>1</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-      <c r="AQ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="AU22">
-        <v>0.02027332763876426</v>
+        <v>0.02536307460332108</v>
       </c>
       <c r="AV22">
         <v>1</v>
@@ -4669,37 +4330,13 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BD22">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE22">
-        <v>1</v>
-      </c>
-      <c r="BF22">
-        <v>1</v>
-      </c>
-      <c r="BG22">
-        <v>0</v>
-      </c>
-      <c r="BH22">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="BM22">
-        <v>0.02315487622110863</v>
+        <v>0.03068010011561574</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4717,39 +4354,15 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:71">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>0.001476551561416556</v>
+        <v>0.001470129665100563</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4767,37 +4380,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AC23">
-        <v>0.001731929775883568</v>
+        <v>0.001660191849610924</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4815,37 +4404,13 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL23">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>1</v>
-      </c>
-      <c r="AQ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="AU23">
-        <v>0.02027332763876426</v>
+        <v>0.02536307460332108</v>
       </c>
       <c r="AV23">
         <v>1</v>
@@ -4863,37 +4428,13 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD23">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE23">
-        <v>1</v>
-      </c>
-      <c r="BF23">
-        <v>1</v>
-      </c>
-      <c r="BG23">
-        <v>0</v>
-      </c>
-      <c r="BH23">
-        <v>1</v>
-      </c>
-      <c r="BI23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="BM23">
-        <v>0.02315487622110863</v>
+        <v>0.03068010011561574</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4911,39 +4452,15 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:71">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="J24" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>0.001476551561416556</v>
+        <v>0.001470129665100563</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -4961,37 +4478,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AC24">
-        <v>0.001731929775883568</v>
+        <v>0.001317843338826946</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5009,37 +4502,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL24">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="AU24">
-        <v>0.02027332763876426</v>
+        <v>0.0207836015584509</v>
       </c>
       <c r="AV24">
         <v>1</v>
@@ -5057,37 +4526,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BD24">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE24">
-        <v>1</v>
-      </c>
-      <c r="BF24">
-        <v>1</v>
-      </c>
-      <c r="BG24">
-        <v>0</v>
-      </c>
-      <c r="BH24">
-        <v>1</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ24">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="BM24">
-        <v>0.02315487622110863</v>
+        <v>0.02590639782828731</v>
       </c>
       <c r="BN24">
         <v>1</v>
@@ -5105,39 +4550,15 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:71">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K25">
-        <v>0.001476551561416556</v>
+        <v>0.001398056294409199</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -5155,43 +4576,19 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="AC25">
-        <v>0.001731929775883568</v>
+        <v>0.0005245375278193606</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -5203,43 +4600,19 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AL25">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>1</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="AU25">
-        <v>0.02027332763876426</v>
+        <v>0</v>
       </c>
       <c r="AV25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AW25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX25">
         <v>1</v>
@@ -5251,43 +4624,19 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="BD25">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>0</v>
-      </c>
-      <c r="BH25">
-        <v>1</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="BM25">
-        <v>0.02315487622110863</v>
+        <v>0</v>
       </c>
       <c r="BN25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP25">
         <v>1</v>
@@ -5299,1854 +4648,6 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:71">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26">
-        <v>0.001476551561416556</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC26">
-        <v>0.001731929775883568</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL26">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU26">
-        <v>0.02027332763876426</v>
-      </c>
-      <c r="AV26">
-        <v>1</v>
-      </c>
-      <c r="AW26">
-        <v>1</v>
-      </c>
-      <c r="AX26">
-        <v>1</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD26">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE26">
-        <v>1</v>
-      </c>
-      <c r="BF26">
-        <v>1</v>
-      </c>
-      <c r="BG26">
-        <v>0</v>
-      </c>
-      <c r="BH26">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ26">
-        <v>0</v>
-      </c>
-      <c r="BL26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM26">
-        <v>0.02315487622110863</v>
-      </c>
-      <c r="BN26">
-        <v>1</v>
-      </c>
-      <c r="BO26">
-        <v>1</v>
-      </c>
-      <c r="BP26">
-        <v>1</v>
-      </c>
-      <c r="BQ26">
-        <v>0</v>
-      </c>
-      <c r="BR26" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:71">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.001480739639633104</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K27">
-        <v>0.001476551561416556</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27">
-        <v>0.00173690311876572</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC27">
-        <v>0.001731929775883568</v>
-      </c>
-      <c r="AD27">
-        <v>1</v>
-      </c>
-      <c r="AE27">
-        <v>1</v>
-      </c>
-      <c r="AF27">
-        <v>1</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL27">
-        <v>0.002111295895959543</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU27">
-        <v>0.02027332763876426</v>
-      </c>
-      <c r="AV27">
-        <v>1</v>
-      </c>
-      <c r="AW27">
-        <v>1</v>
-      </c>
-      <c r="AX27">
-        <v>1</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD27">
-        <v>0.00271032433946966</v>
-      </c>
-      <c r="BE27">
-        <v>1</v>
-      </c>
-      <c r="BF27">
-        <v>1</v>
-      </c>
-      <c r="BG27">
-        <v>0</v>
-      </c>
-      <c r="BH27">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ27">
-        <v>0</v>
-      </c>
-      <c r="BL27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM27">
-        <v>0.02315487622110863</v>
-      </c>
-      <c r="BN27">
-        <v>1</v>
-      </c>
-      <c r="BO27">
-        <v>1</v>
-      </c>
-      <c r="BP27">
-        <v>1</v>
-      </c>
-      <c r="BQ27">
-        <v>0</v>
-      </c>
-      <c r="BR27" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:71">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.001474711512391395</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K28">
-        <v>0.001476551561416556</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28">
-        <v>0.001708269514367598</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>1</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC28">
-        <v>0.001703296171485447</v>
-      </c>
-      <c r="AD28">
-        <v>1</v>
-      </c>
-      <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL28">
-        <v>0.002049623517255897</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>1</v>
-      </c>
-      <c r="AT28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU28">
-        <v>0.01998314983625682</v>
-      </c>
-      <c r="AV28">
-        <v>1</v>
-      </c>
-      <c r="AW28">
-        <v>1</v>
-      </c>
-      <c r="AX28">
-        <v>1</v>
-      </c>
-      <c r="AY28">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>1</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="BD28">
-        <v>0.002595789921877174</v>
-      </c>
-      <c r="BE28">
-        <v>1</v>
-      </c>
-      <c r="BF28">
-        <v>1</v>
-      </c>
-      <c r="BG28">
-        <v>0</v>
-      </c>
-      <c r="BH28">
-        <v>1</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ28">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM28">
-        <v>0.02286690042729929</v>
-      </c>
-      <c r="BN28">
-        <v>1</v>
-      </c>
-      <c r="BO28">
-        <v>1</v>
-      </c>
-      <c r="BP28">
-        <v>1</v>
-      </c>
-      <c r="BQ28">
-        <v>0</v>
-      </c>
-      <c r="BR28" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:71">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.001474711512391395</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29">
-        <v>0.001470523434174846</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29">
-        <v>0.001708269514367598</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC29">
-        <v>0.001703296171485447</v>
-      </c>
-      <c r="AD29">
-        <v>1</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AF29">
-        <v>1</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL29">
-        <v>0.002049623517255897</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>1</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU29">
-        <v>0.01998314983625682</v>
-      </c>
-      <c r="AV29">
-        <v>1</v>
-      </c>
-      <c r="AW29">
-        <v>1</v>
-      </c>
-      <c r="AX29">
-        <v>1</v>
-      </c>
-      <c r="AY29">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>1</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD29">
-        <v>0.002595789921877174</v>
-      </c>
-      <c r="BE29">
-        <v>1</v>
-      </c>
-      <c r="BF29">
-        <v>1</v>
-      </c>
-      <c r="BG29">
-        <v>0</v>
-      </c>
-      <c r="BH29">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ29">
-        <v>1</v>
-      </c>
-      <c r="BL29" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BM29">
-        <v>0.02286690042729929</v>
-      </c>
-      <c r="BN29">
-        <v>1</v>
-      </c>
-      <c r="BO29">
-        <v>1</v>
-      </c>
-      <c r="BP29">
-        <v>1</v>
-      </c>
-      <c r="BQ29">
-        <v>0</v>
-      </c>
-      <c r="BR29" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:71">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.001474711512391395</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K30">
-        <v>0.001470523434174846</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T30">
-        <v>0.001708269514367598</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>1</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC30">
-        <v>0.001703296171485447</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30">
-        <v>1</v>
-      </c>
-      <c r="AF30">
-        <v>1</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL30">
-        <v>0.002049623517255897</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>1</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AU30">
-        <v>0.01998314983625682</v>
-      </c>
-      <c r="AV30">
-        <v>1</v>
-      </c>
-      <c r="AW30">
-        <v>1</v>
-      </c>
-      <c r="AX30">
-        <v>1</v>
-      </c>
-      <c r="AY30">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA30">
-        <v>1</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BD30">
-        <v>0.002595789921877174</v>
-      </c>
-      <c r="BE30">
-        <v>1</v>
-      </c>
-      <c r="BF30">
-        <v>1</v>
-      </c>
-      <c r="BG30">
-        <v>0</v>
-      </c>
-      <c r="BH30">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ30">
-        <v>1</v>
-      </c>
-      <c r="BL30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM30">
-        <v>0.02286690042729929</v>
-      </c>
-      <c r="BN30">
-        <v>1</v>
-      </c>
-      <c r="BO30">
-        <v>1</v>
-      </c>
-      <c r="BP30">
-        <v>1</v>
-      </c>
-      <c r="BQ30">
-        <v>0</v>
-      </c>
-      <c r="BR30" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:71">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.001468683385149685</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31">
-        <v>0.001470523434174846</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31">
-        <v>0.001679635909969477</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>1</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC31">
-        <v>0.001703296171485447</v>
-      </c>
-      <c r="AD31">
-        <v>1</v>
-      </c>
-      <c r="AE31">
-        <v>1</v>
-      </c>
-      <c r="AF31">
-        <v>1</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL31">
-        <v>0.00198795113855225</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>1</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>2</v>
-      </c>
-      <c r="AT31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU31">
-        <v>0.01998314983625682</v>
-      </c>
-      <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>1</v>
-      </c>
-      <c r="AX31">
-        <v>1</v>
-      </c>
-      <c r="AY31">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA31">
-        <v>1</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD31">
-        <v>0.002481255504284687</v>
-      </c>
-      <c r="BE31">
-        <v>1</v>
-      </c>
-      <c r="BF31">
-        <v>1</v>
-      </c>
-      <c r="BG31">
-        <v>0</v>
-      </c>
-      <c r="BH31">
-        <v>1</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ31">
-        <v>2</v>
-      </c>
-      <c r="BL31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BM31">
-        <v>0.02286690042729929</v>
-      </c>
-      <c r="BN31">
-        <v>1</v>
-      </c>
-      <c r="BO31">
-        <v>1</v>
-      </c>
-      <c r="BP31">
-        <v>1</v>
-      </c>
-      <c r="BQ31">
-        <v>0</v>
-      </c>
-      <c r="BR31" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:71">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.001462655257907975</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>3</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K32">
-        <v>0.001470523434174846</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T32">
-        <v>0.001651002305571355</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>3</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC32">
-        <v>0.001674662567087325</v>
-      </c>
-      <c r="AD32">
-        <v>1</v>
-      </c>
-      <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>2</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL32">
-        <v>0.001926278759848603</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>3</v>
-      </c>
-      <c r="AT32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU32">
-        <v>0.01969297203374937</v>
-      </c>
-      <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>1</v>
-      </c>
-      <c r="AX32">
-        <v>1</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>2</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD32">
-        <v>0.002366721086692201</v>
-      </c>
-      <c r="BE32">
-        <v>1</v>
-      </c>
-      <c r="BF32">
-        <v>1</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>1</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ32">
-        <v>3</v>
-      </c>
-      <c r="BL32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BM32">
-        <v>0.02257892463348996</v>
-      </c>
-      <c r="BN32">
-        <v>1</v>
-      </c>
-      <c r="BO32">
-        <v>1</v>
-      </c>
-      <c r="BP32">
-        <v>1</v>
-      </c>
-      <c r="BQ32">
-        <v>0</v>
-      </c>
-      <c r="BR32" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="10:71">
-      <c r="J33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33">
-        <v>0.001464495306933136</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC33">
-        <v>0.001674662567087325</v>
-      </c>
-      <c r="AD33">
-        <v>1</v>
-      </c>
-      <c r="AE33">
-        <v>1</v>
-      </c>
-      <c r="AF33">
-        <v>1</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>2</v>
-      </c>
-      <c r="AT33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU33">
-        <v>0.01969297203374937</v>
-      </c>
-      <c r="AV33">
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <v>1</v>
-      </c>
-      <c r="AX33">
-        <v>1</v>
-      </c>
-      <c r="AY33">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA33">
-        <v>2</v>
-      </c>
-      <c r="BL33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM33">
-        <v>0.02257892463348996</v>
-      </c>
-      <c r="BN33">
-        <v>1</v>
-      </c>
-      <c r="BO33">
-        <v>1</v>
-      </c>
-      <c r="BP33">
-        <v>1</v>
-      </c>
-      <c r="BQ33">
-        <v>0</v>
-      </c>
-      <c r="BR33" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="10:71">
-      <c r="J34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34">
-        <v>0.001464495306933136</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>2</v>
-      </c>
-      <c r="AB34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC34">
-        <v>0.001646028962689204</v>
-      </c>
-      <c r="AD34">
-        <v>1</v>
-      </c>
-      <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI34">
-        <v>3</v>
-      </c>
-      <c r="AT34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AU34">
-        <v>0.01940279423124193</v>
-      </c>
-      <c r="AV34">
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <v>1</v>
-      </c>
-      <c r="AX34">
-        <v>1</v>
-      </c>
-      <c r="AY34">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA34">
-        <v>3</v>
-      </c>
-      <c r="BL34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BM34">
-        <v>0.02229094883968063</v>
-      </c>
-      <c r="BN34">
-        <v>1</v>
-      </c>
-      <c r="BO34">
-        <v>1</v>
-      </c>
-      <c r="BP34">
-        <v>1</v>
-      </c>
-      <c r="BQ34">
-        <v>0</v>
-      </c>
-      <c r="BR34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="10:71">
-      <c r="J35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35">
-        <v>0.001458467179691426</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>3</v>
-      </c>
-      <c r="AB35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC35">
-        <v>0.001646028962689204</v>
-      </c>
-      <c r="AD35">
-        <v>1</v>
-      </c>
-      <c r="AE35">
-        <v>1</v>
-      </c>
-      <c r="AF35">
-        <v>1</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>3</v>
-      </c>
-      <c r="AT35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU35">
-        <v>0.01940279423124193</v>
-      </c>
-      <c r="AV35">
-        <v>1</v>
-      </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35">
-        <v>1</v>
-      </c>
-      <c r="AY35">
-        <v>0</v>
-      </c>
-      <c r="AZ35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA35">
-        <v>3</v>
-      </c>
-      <c r="BL35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BM35">
-        <v>0.02229094883968063</v>
-      </c>
-      <c r="BN35">
-        <v>1</v>
-      </c>
-      <c r="BO35">
-        <v>1</v>
-      </c>
-      <c r="BP35">
-        <v>1</v>
-      </c>
-      <c r="BQ35">
-        <v>0</v>
-      </c>
-      <c r="BR35" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="10:71">
-      <c r="J36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K36">
-        <v>0.001458467179691426</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="AB36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC36">
-        <v>0.001646028962689204</v>
-      </c>
-      <c r="AD36">
-        <v>1</v>
-      </c>
-      <c r="AE36">
-        <v>1</v>
-      </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>3</v>
-      </c>
-      <c r="AT36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU36">
-        <v>0.01940279423124193</v>
-      </c>
-      <c r="AV36">
-        <v>1</v>
-      </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36">
-        <v>1</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>3</v>
-      </c>
-      <c r="BL36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM36">
-        <v>0.02229094883968063</v>
-      </c>
-      <c r="BN36">
-        <v>1</v>
-      </c>
-      <c r="BO36">
-        <v>1</v>
-      </c>
-      <c r="BP36">
-        <v>1</v>
-      </c>
-      <c r="BQ36">
-        <v>0</v>
-      </c>
-      <c r="BR36" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="10:71">
-      <c r="J37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K37">
-        <v>0.001458467179691426</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>3</v>
-      </c>
-      <c r="AB37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC37">
-        <v>0.0004859646943624875</v>
-      </c>
-      <c r="AD37">
-        <v>3</v>
-      </c>
-      <c r="AE37">
-        <v>3</v>
-      </c>
-      <c r="AF37">
-        <v>1</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>105</v>
-      </c>
-      <c r="AT37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>3</v>
-      </c>
-      <c r="AW37">
-        <v>3</v>
-      </c>
-      <c r="AX37">
-        <v>1</v>
-      </c>
-      <c r="AY37">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA37">
-        <v>105</v>
-      </c>
-      <c r="BL37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BM37">
-        <v>0</v>
-      </c>
-      <c r="BN37">
-        <v>3</v>
-      </c>
-      <c r="BO37">
-        <v>3</v>
-      </c>
-      <c r="BP37">
-        <v>1</v>
-      </c>
-      <c r="BQ37">
-        <v>0</v>
-      </c>
-      <c r="BR37" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS37">
         <v>105</v>
       </c>
     </row>
